--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/separate_group_ga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7524D9-19DC-0840-878C-EB89E1CC34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A12813D-715B-8F44-93BD-0ECA77B859A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,28 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個体数（ゲノム数）．大きいほど良いが計算時間が増す</t>
-    <rPh sb="0" eb="3">
-      <t>コタイスウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ケイサンジカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>N人を４人グループに分ける時の，組み合わせ数</t>
     <rPh sb="0" eb="1">
       <t>スウ</t>
@@ -1179,6 +1157,28 @@
   </si>
   <si>
     <t>端数分を調整してグループ人数を増やすか減らすか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨値：~1000.個体数（ゲノム数）．大きいと計算時間が増す</t>
+    <rPh sb="0" eb="3">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コタイスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ケイサンジカン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -25075,7 +25075,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -25163,16 +25163,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -25199,7 +25199,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -25213,7 +25213,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -25224,16 +25224,16 @@
     </row>
     <row r="14" spans="1:4" ht="90">
       <c r="A14" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="25">
         <v>0</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -25263,10 +25263,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -25277,7 +25277,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
@@ -25305,7 +25305,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>41</v>
@@ -25417,8 +25417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12143C5-D48E-4D89-84FF-A7032F30138D}">
   <dimension ref="A2:AR190"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -25429,88 +25429,88 @@
   <sheetData>
     <row r="2" spans="2:3" ht="24">
       <c r="B2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="19">
       <c r="C4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="19">
       <c r="C13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="19">
       <c r="C19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="19">
       <c r="C24" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="19">
       <c r="C25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="24">
       <c r="B29" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="19">
       <c r="C31" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="19">
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="3:12" ht="19">
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="19">
       <c r="L38" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="19">
       <c r="L40" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="19">
       <c r="L42" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="19">
       <c r="L43" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
       <c r="D54" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M54" s="13"/>
     </row>
     <row r="59" spans="2:13">
       <c r="C59" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:13">
@@ -25519,10 +25519,10 @@
     </row>
     <row r="72" spans="4:12" ht="19">
       <c r="D72" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="4:12" ht="19">
@@ -25530,22 +25530,22 @@
     </row>
     <row r="77" spans="4:12" ht="19">
       <c r="L77" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="12:12" ht="19">
       <c r="L95" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="12:12" ht="19">
       <c r="L96" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="19">
       <c r="L98" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="2:18" ht="24">
@@ -25611,7 +25611,7 @@
     </row>
     <row r="190" spans="3:3" ht="19">
       <c r="C190" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/separate_group_ga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A12813D-715B-8F44-93BD-0ECA77B859A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486431EB-4633-5C44-A868-E2FD50448F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>対象エクセル名</t>
     <rPh sb="0" eb="2">
@@ -1181,6 +1181,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>課の被りをなくすため</t>
+    <rPh sb="0" eb="1">
+      <t>カノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -19552,7 +19562,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>30</a:t>
+            <a:t> i </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
@@ -25075,7 +25085,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -25263,7 +25273,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>101</v>
@@ -25277,7 +25287,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
@@ -25291,7 +25301,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -25305,7 +25315,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>41</v>
@@ -25347,7 +25357,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>45</v>
@@ -25363,7 +25373,9 @@
       <c r="C26" s="2">
         <v>1000</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
@@ -25417,8 +25429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12143C5-D48E-4D89-84FF-A7032F30138D}">
   <dimension ref="A2:AR190"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A238" zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="H263" sqref="H263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6081B39-CA45-43D1-9EA8-6D2E68D67A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333EFC99-4740-43FE-A4A5-5A983386A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="6" r:id="rId1"/>
     <sheet name="グループ分け方法の説明" sheetId="7" r:id="rId2"/>
     <sheet name="使用上の注意" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -25028,8 +25028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7176C33-C9EB-4A89-A9DF-877E1AF7E054}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25217,7 +25217,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>100</v>
@@ -25231,7 +25231,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
@@ -25373,7 +25373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12143C5-D48E-4D89-84FF-A7032F30138D}">
   <dimension ref="A2:AR190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="239" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333EFC99-4740-43FE-A4A5-5A983386A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426BDE1-415E-4E4A-A673-ED1229A574B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25217,7 +25217,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>100</v>
@@ -25231,7 +25231,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
@@ -25245,7 +25245,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426BDE1-415E-4E4A-A673-ED1229A574B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27FF62-B9BC-4ECE-B9DE-4A0F7A88FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25029,7 +25029,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25217,7 +25217,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>100</v>
@@ -25231,7 +25231,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27FF62-B9BC-4ECE-B9DE-4A0F7A88FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35DA77-6538-4CC0-A4FD-665618A164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>対象エクセル名</t>
     <rPh sb="0" eb="2">
@@ -38,10 +38,6 @@
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>names.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1187,6 +1183,72 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>司会回数</t>
+    <rPh sb="0" eb="4">
+      <t>シカイカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[列名]司会回数</t>
+    <rPh sb="1" eb="3">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シカイカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>names.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custom_crossover_prob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shuffle_selection_prob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交叉種類選択率1</t>
+    <rPh sb="0" eb="2">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュルイセンタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交叉種類選択率2</t>
+    <rPh sb="0" eb="2">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュルイセンタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨値：0.5</t>
+    <rPh sb="0" eb="3">
+      <t>スイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COL_HOST</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -24703,8 +24765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D0E33A5-264C-49BC-A298-CE0CBA52E93A}" name="テーブル1" displayName="テーブル1" ref="A2:D7" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A2:D7" xr:uid="{3D0E33A5-264C-49BC-A298-CE0CBA52E93A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D0E33A5-264C-49BC-A298-CE0CBA52E93A}" name="テーブル1" displayName="テーブル1" ref="A2:D8" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A2:D8" xr:uid="{3D0E33A5-264C-49BC-A298-CE0CBA52E93A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B9640379-6A41-49ED-954F-3A4C13213A9A}" name="項目" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{C4454DAE-8039-49C0-AB6B-BCFDAC0CE671}" name="変数名" dataDxfId="13"/>
@@ -24716,8 +24778,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}" name="テーブル2" displayName="テーブル2" ref="A11:D14" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A11:D14" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}" name="テーブル2" displayName="テーブル2" ref="A12:D15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A12:D15" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BAAAF7E0-332F-4074-888D-46789A8A4093}" name="項目" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{EC16F0B3-198F-4949-B4EB-4B1582466A19}" name="変数名" dataDxfId="7"/>
@@ -24729,8 +24791,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}" name="テーブル3" displayName="テーブル3" ref="A18:D29" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A18:D29" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}" name="テーブル3" displayName="テーブル3" ref="A19:D32" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A19:D32" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E5EB588A-74A4-473C-8D7C-FCFBC1F56BCB}" name="項目" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{AFD463E6-DB3C-4AA0-8B7B-0507147B4BFB}" name="変数名" dataDxfId="2"/>
@@ -25026,10 +25088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7176C33-C9EB-4A89-A9DF-877E1AF7E054}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25042,21 +25104,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -25064,230 +25126,230 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>93</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
+      <c r="B8" s="4" t="s">
+        <v>91</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>94</v>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>96</v>
+      <c r="B12" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
+      <c r="D12" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="24" t="s">
+    <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="25">
+      <c r="B15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>21</v>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>3</v>
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>68</v>
+      <c r="A19" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="C19" s="2">
-        <v>300</v>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>100</v>
+      <c r="D19" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>0.17</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>0.17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>46</v>
@@ -25295,13 +25357,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>45</v>
@@ -25309,53 +25371,93 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
-        <v>1000</v>
+        <v>0.7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>0.6</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>52</v>
+      <c r="A29" s="1" t="s">
+        <v>48</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>62</v>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -25385,82 +25487,82 @@
   <sheetData>
     <row r="2" spans="2:3" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C4" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C13" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C24" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C25" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="24" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L38" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L40" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L42" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L43" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D54" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M54" s="13"/>
     </row>
@@ -25473,10 +25575,10 @@
     </row>
     <row r="72" spans="4:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D72" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="4:12" ht="18.75" x14ac:dyDescent="0.2">
@@ -25484,88 +25586,88 @@
     </row>
     <row r="77" spans="4:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L77" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="12:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L95" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="12:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L96" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
       <c r="L98" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B103" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C105" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D109" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.15">
       <c r="R111" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D127" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="3:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C133" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C135" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D136" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C139" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R169" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="3:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="C190" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35DA77-6538-4CC0-A4FD-665618A164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C3860-B3A0-4FEA-848A-D5578A1FCB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="6" r:id="rId1"/>
@@ -25293,7 +25293,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>99</v>
@@ -25307,7 +25307,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>66</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C3860-B3A0-4FEA-848A-D5578A1FCB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EE2AB2-A809-4987-8F39-73B241BB1BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="6" r:id="rId1"/>
-    <sheet name="グループ分け方法の説明" sheetId="7" r:id="rId2"/>
-    <sheet name="使用上の注意" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="グループ分け方法の説明" sheetId="7" r:id="rId3"/>
+    <sheet name="使用上の注意" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>対象エクセル名</t>
     <rPh sb="0" eb="2">
@@ -1249,6 +1250,41 @@
     <t>COL_HOST</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>nevals</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>extension_factor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト：0
+より重複が出にくくしたいとき：1~2
+ただし，ADJUST_GROUP_SIZE_FOR_REMAINDER=0の時のみ有効
+グループを追加拡張する際の倍率を示すパラメータで、値を大きくするほど (p-1) グループが p 倍増え、全体のグループ構成がより拡張される．</t>
+    <rPh sb="10" eb="12">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1465,7 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1504,6 +1540,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1836,7 +1884,3436 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$429</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="424"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$429</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="424"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F2E-4839-88FB-48B50252D9EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="699151616"/>
+        <c:axId val="699158336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="699151616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699158336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="699158336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699151616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08BB367-11FB-67FC-4C07-E77173941EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -24778,8 +28255,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}" name="テーブル2" displayName="テーブル2" ref="A12:D15" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A12:D15" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}" name="テーブル2" displayName="テーブル2" ref="A12:D16" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A12:D16" xr:uid="{E6DD70A2-3897-4299-802B-9C8860A60231}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BAAAF7E0-332F-4074-888D-46789A8A4093}" name="項目" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{EC16F0B3-198F-4949-B4EB-4B1582466A19}" name="変数名" dataDxfId="7"/>
@@ -24791,8 +28268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}" name="テーブル3" displayName="テーブル3" ref="A19:D32" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A19:D32" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}" name="テーブル3" displayName="テーブル3" ref="A20:D33" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A20:D33" xr:uid="{CC083020-2864-41D7-9039-5254A250ACBD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E5EB588A-74A4-473C-8D7C-FCFBC1F56BCB}" name="項目" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{AFD463E6-DB3C-4AA0-8B7B-0507147B4BFB}" name="変数名" dataDxfId="2"/>
@@ -25088,10 +28565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7176C33-C9EB-4A89-A9DF-877E1AF7E054}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25266,198 +28743,210 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2">
-        <v>350</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>0.17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>1000</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -25472,6 +28961,6015 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B6020-2E31-4A5B-A78B-2E944D46F41A}">
+  <dimension ref="A2:D429"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>1082</v>
+      </c>
+      <c r="D3">
+        <v>1403.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>267</v>
+      </c>
+      <c r="C4">
+        <v>1082</v>
+      </c>
+      <c r="D4">
+        <v>1180.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>1082</v>
+      </c>
+      <c r="D5">
+        <v>1162.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1136.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>223</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>1113.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>1089.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>257</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>1052.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>258</v>
+      </c>
+      <c r="C10">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>897.88900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>270</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>752.88599999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>257</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>584.226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>247</v>
+      </c>
+      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>568.61099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>580.46900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>260</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>588.31399999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>250</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>587.70299999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>273</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>678.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>229</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>599.81100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>273</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>660.60299999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>257</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>622.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>262</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>573.00900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>263</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>586.64300000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>242</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>501.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>494.05099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>252</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>499.72300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>276</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>530.76900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>261</v>
+      </c>
+      <c r="C27">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>603.56299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>251</v>
+      </c>
+      <c r="C28">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>547.85699999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>261</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>520.149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>235</v>
+      </c>
+      <c r="C30">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>478.06599999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>254</v>
+      </c>
+      <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>491.834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>255</v>
+      </c>
+      <c r="C32">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>353.71100000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>264</v>
+      </c>
+      <c r="C33">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>408.75700000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>278</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>396.60899999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>251</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>390.47699999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>266</v>
+      </c>
+      <c r="C36">
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <v>429.41399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>246</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>417.74599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>269</v>
+      </c>
+      <c r="C38">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>513.62900000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>258</v>
+      </c>
+      <c r="C39">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>441.14600000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>277</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>554.95399999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>232</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>476.84899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>252</v>
+      </c>
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>518.32600000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>228</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>479.96600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>271</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>500.52300000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>256</v>
+      </c>
+      <c r="C45">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>526.98299999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>262</v>
+      </c>
+      <c r="C46">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>505.28899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>263</v>
+      </c>
+      <c r="C47">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>478.72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>263</v>
+      </c>
+      <c r="C48">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>428.59399999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>244</v>
+      </c>
+      <c r="C49">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>429.17099999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>250</v>
+      </c>
+      <c r="C50">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>437.59699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>247</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>380.88299999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>238</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>402.22899999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>238</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>363.67399999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>262</v>
+      </c>
+      <c r="C54">
+        <v>49</v>
+      </c>
+      <c r="D54">
+        <v>417.01400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>254</v>
+      </c>
+      <c r="C55">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>438.68599999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>255</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>413.67700000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>267</v>
+      </c>
+      <c r="C57">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>408.017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>234</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>404.51400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>246</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>474.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>251</v>
+      </c>
+      <c r="C60">
+        <v>49</v>
+      </c>
+      <c r="D60">
+        <v>486.27100000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>262</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>433.98899999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>252</v>
+      </c>
+      <c r="C62">
+        <v>49</v>
+      </c>
+      <c r="D62">
+        <v>445.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>253</v>
+      </c>
+      <c r="C63">
+        <v>49</v>
+      </c>
+      <c r="D63">
+        <v>387.26600000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>260</v>
+      </c>
+      <c r="C64">
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <v>366.78300000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>248</v>
+      </c>
+      <c r="C65">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>409.33699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>241</v>
+      </c>
+      <c r="C66">
+        <v>49</v>
+      </c>
+      <c r="D66">
+        <v>380.483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>254</v>
+      </c>
+      <c r="C67">
+        <v>49</v>
+      </c>
+      <c r="D67">
+        <v>398.34899999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>261</v>
+      </c>
+      <c r="C68">
+        <v>49</v>
+      </c>
+      <c r="D68">
+        <v>345.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>228</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>315.98599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>253</v>
+      </c>
+      <c r="C70">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>345.05099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>238</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>312.78899999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>275</v>
+      </c>
+      <c r="C72">
+        <v>48</v>
+      </c>
+      <c r="D72">
+        <v>392.34300000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>270</v>
+      </c>
+      <c r="C73">
+        <v>48</v>
+      </c>
+      <c r="D73">
+        <v>397.82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>235</v>
+      </c>
+      <c r="C74">
+        <v>48</v>
+      </c>
+      <c r="D74">
+        <v>392.95100000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>262</v>
+      </c>
+      <c r="C75">
+        <v>47</v>
+      </c>
+      <c r="D75">
+        <v>422.56900000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>235</v>
+      </c>
+      <c r="C76">
+        <v>46</v>
+      </c>
+      <c r="D76">
+        <v>390.09699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>258</v>
+      </c>
+      <c r="C77">
+        <v>46</v>
+      </c>
+      <c r="D77">
+        <v>492.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>253</v>
+      </c>
+      <c r="C78">
+        <v>46</v>
+      </c>
+      <c r="D78">
+        <v>419.07400000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>265</v>
+      </c>
+      <c r="C79">
+        <v>46</v>
+      </c>
+      <c r="D79">
+        <v>470.46600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>255</v>
+      </c>
+      <c r="C80">
+        <v>46</v>
+      </c>
+      <c r="D80">
+        <v>390.84899999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>269</v>
+      </c>
+      <c r="C81">
+        <v>46</v>
+      </c>
+      <c r="D81">
+        <v>426.94299999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>262</v>
+      </c>
+      <c r="C82">
+        <v>46</v>
+      </c>
+      <c r="D82">
+        <v>418.20299999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>250</v>
+      </c>
+      <c r="C83">
+        <v>46</v>
+      </c>
+      <c r="D83">
+        <v>422.37400000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>242</v>
+      </c>
+      <c r="C84">
+        <v>46</v>
+      </c>
+      <c r="D84">
+        <v>434.76299999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>276</v>
+      </c>
+      <c r="C85">
+        <v>46</v>
+      </c>
+      <c r="D85">
+        <v>496.92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>274</v>
+      </c>
+      <c r="C86">
+        <v>46</v>
+      </c>
+      <c r="D86">
+        <v>497.44900000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>274</v>
+      </c>
+      <c r="C87">
+        <v>46</v>
+      </c>
+      <c r="D87">
+        <v>512.86599999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>258</v>
+      </c>
+      <c r="C88">
+        <v>46</v>
+      </c>
+      <c r="D88">
+        <v>455.90600000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>274</v>
+      </c>
+      <c r="C89">
+        <v>46</v>
+      </c>
+      <c r="D89">
+        <v>479.57100000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>278</v>
+      </c>
+      <c r="C90">
+        <v>46</v>
+      </c>
+      <c r="D90">
+        <v>499.07400000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>258</v>
+      </c>
+      <c r="C91">
+        <v>45</v>
+      </c>
+      <c r="D91">
+        <v>498.41399999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>242</v>
+      </c>
+      <c r="C92">
+        <v>45</v>
+      </c>
+      <c r="D92">
+        <v>418.363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>248</v>
+      </c>
+      <c r="C93">
+        <v>45</v>
+      </c>
+      <c r="D93">
+        <v>418.85700000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>244</v>
+      </c>
+      <c r="C94">
+        <v>45</v>
+      </c>
+      <c r="D94">
+        <v>426.94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>244</v>
+      </c>
+      <c r="C95">
+        <v>45</v>
+      </c>
+      <c r="D95">
+        <v>421.26600000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>255</v>
+      </c>
+      <c r="C96">
+        <v>45</v>
+      </c>
+      <c r="D96">
+        <v>487.52300000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>252</v>
+      </c>
+      <c r="C97">
+        <v>45</v>
+      </c>
+      <c r="D97">
+        <v>485.05700000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>251</v>
+      </c>
+      <c r="C98">
+        <v>45</v>
+      </c>
+      <c r="D98">
+        <v>375.23700000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>269</v>
+      </c>
+      <c r="C99">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <v>362.67399999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>256</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+      <c r="D100">
+        <v>362.59100000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>261</v>
+      </c>
+      <c r="C101">
+        <v>43</v>
+      </c>
+      <c r="D101">
+        <v>387.95100000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>236</v>
+      </c>
+      <c r="C102">
+        <v>43</v>
+      </c>
+      <c r="D102">
+        <v>362.03699999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>253</v>
+      </c>
+      <c r="C103">
+        <v>43</v>
+      </c>
+      <c r="D103">
+        <v>397.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>254</v>
+      </c>
+      <c r="C104">
+        <v>43</v>
+      </c>
+      <c r="D104">
+        <v>382.697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>266</v>
+      </c>
+      <c r="C105">
+        <v>43</v>
+      </c>
+      <c r="D105">
+        <v>383.14299999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>237</v>
+      </c>
+      <c r="C106">
+        <v>43</v>
+      </c>
+      <c r="D106">
+        <v>367.85700000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>248</v>
+      </c>
+      <c r="C107">
+        <v>43</v>
+      </c>
+      <c r="D107">
+        <v>405.94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>234</v>
+      </c>
+      <c r="C108">
+        <v>43</v>
+      </c>
+      <c r="D108">
+        <v>329.923</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>264</v>
+      </c>
+      <c r="C109">
+        <v>42</v>
+      </c>
+      <c r="D109">
+        <v>371.34899999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>261</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="D110">
+        <v>370.67700000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>239</v>
+      </c>
+      <c r="C111">
+        <v>42</v>
+      </c>
+      <c r="D111">
+        <v>331.846</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>251</v>
+      </c>
+      <c r="C112">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <v>416.46899999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>256</v>
+      </c>
+      <c r="C113">
+        <v>41</v>
+      </c>
+      <c r="D113">
+        <v>425.21100000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>247</v>
+      </c>
+      <c r="C114">
+        <v>41</v>
+      </c>
+      <c r="D114">
+        <v>369.33100000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>241</v>
+      </c>
+      <c r="C115">
+        <v>41</v>
+      </c>
+      <c r="D115">
+        <v>327.45699999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>250</v>
+      </c>
+      <c r="C116">
+        <v>41</v>
+      </c>
+      <c r="D116">
+        <v>359.18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>256</v>
+      </c>
+      <c r="C117">
+        <v>41</v>
+      </c>
+      <c r="D117">
+        <v>359.91699999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>262</v>
+      </c>
+      <c r="C118">
+        <v>41</v>
+      </c>
+      <c r="D118">
+        <v>390.09399999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>264</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>468.48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>272</v>
+      </c>
+      <c r="C120">
+        <v>39</v>
+      </c>
+      <c r="D120">
+        <v>473.24599999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>238</v>
+      </c>
+      <c r="C121">
+        <v>39</v>
+      </c>
+      <c r="D121">
+        <v>409.714</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>259</v>
+      </c>
+      <c r="C122">
+        <v>39</v>
+      </c>
+      <c r="D122">
+        <v>409.786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>254</v>
+      </c>
+      <c r="C123">
+        <v>36</v>
+      </c>
+      <c r="D123">
+        <v>455.05700000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>248</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>439.851</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>257</v>
+      </c>
+      <c r="C125">
+        <v>36</v>
+      </c>
+      <c r="D125">
+        <v>492.06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>253</v>
+      </c>
+      <c r="C126">
+        <v>37</v>
+      </c>
+      <c r="D126">
+        <v>459.697</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>275</v>
+      </c>
+      <c r="C127">
+        <v>37</v>
+      </c>
+      <c r="D127">
+        <v>512.50900000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>258</v>
+      </c>
+      <c r="C128">
+        <v>37</v>
+      </c>
+      <c r="D128">
+        <v>465.49400000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>248</v>
+      </c>
+      <c r="C129">
+        <v>37</v>
+      </c>
+      <c r="D129">
+        <v>439.14600000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>273</v>
+      </c>
+      <c r="C130">
+        <v>37</v>
+      </c>
+      <c r="D130">
+        <v>559.84299999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>248</v>
+      </c>
+      <c r="C131">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <v>457.95699999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>264</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="D132">
+        <v>428.803</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>269</v>
+      </c>
+      <c r="C133">
+        <v>35</v>
+      </c>
+      <c r="D133">
+        <v>489.43700000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>264</v>
+      </c>
+      <c r="C134">
+        <v>35</v>
+      </c>
+      <c r="D134">
+        <v>513.64300000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>266</v>
+      </c>
+      <c r="C135">
+        <v>35</v>
+      </c>
+      <c r="D135">
+        <v>450.98599999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>253</v>
+      </c>
+      <c r="C136">
+        <v>35</v>
+      </c>
+      <c r="D136">
+        <v>434.62900000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>262</v>
+      </c>
+      <c r="C137">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>429.80599999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>242</v>
+      </c>
+      <c r="C138">
+        <v>35</v>
+      </c>
+      <c r="D138">
+        <v>417.714</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>251</v>
+      </c>
+      <c r="C139">
+        <v>35</v>
+      </c>
+      <c r="D139">
+        <v>366.61700000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>258</v>
+      </c>
+      <c r="C140">
+        <v>35</v>
+      </c>
+      <c r="D140">
+        <v>384.55099999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>248</v>
+      </c>
+      <c r="C141">
+        <v>34</v>
+      </c>
+      <c r="D141">
+        <v>332.95699999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>264</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+      <c r="D142">
+        <v>358.13099999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>283</v>
+      </c>
+      <c r="C143">
+        <v>35</v>
+      </c>
+      <c r="D143">
+        <v>409.57400000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>248</v>
+      </c>
+      <c r="C144">
+        <v>34</v>
+      </c>
+      <c r="D144">
+        <v>389.35399999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>264</v>
+      </c>
+      <c r="C145">
+        <v>34</v>
+      </c>
+      <c r="D145">
+        <v>376.62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>266</v>
+      </c>
+      <c r="C146">
+        <v>34</v>
+      </c>
+      <c r="D146">
+        <v>379.44900000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>278</v>
+      </c>
+      <c r="C147">
+        <v>34</v>
+      </c>
+      <c r="D147">
+        <v>389.709</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>240</v>
+      </c>
+      <c r="C148">
+        <v>34</v>
+      </c>
+      <c r="D148">
+        <v>394.86599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>252</v>
+      </c>
+      <c r="C149">
+        <v>34</v>
+      </c>
+      <c r="D149">
+        <v>452.18599999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>265</v>
+      </c>
+      <c r="C150">
+        <v>34</v>
+      </c>
+      <c r="D150">
+        <v>431.58300000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>283</v>
+      </c>
+      <c r="C151">
+        <v>34</v>
+      </c>
+      <c r="D151">
+        <v>441.846</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>265</v>
+      </c>
+      <c r="C152">
+        <v>34</v>
+      </c>
+      <c r="D152">
+        <v>401.78300000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>279</v>
+      </c>
+      <c r="C153">
+        <v>34</v>
+      </c>
+      <c r="D153">
+        <v>389.41399999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>256</v>
+      </c>
+      <c r="C154">
+        <v>34</v>
+      </c>
+      <c r="D154">
+        <v>350.76600000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>250</v>
+      </c>
+      <c r="C155">
+        <v>34</v>
+      </c>
+      <c r="D155">
+        <v>353.40300000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>258</v>
+      </c>
+      <c r="C156">
+        <v>34</v>
+      </c>
+      <c r="D156">
+        <v>371.12900000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>252</v>
+      </c>
+      <c r="C157">
+        <v>34</v>
+      </c>
+      <c r="D157">
+        <v>359.89699999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>223</v>
+      </c>
+      <c r="C158">
+        <v>34</v>
+      </c>
+      <c r="D158">
+        <v>319.90300000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>256</v>
+      </c>
+      <c r="C159">
+        <v>34</v>
+      </c>
+      <c r="D159">
+        <v>302.45699999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>269</v>
+      </c>
+      <c r="C160">
+        <v>34</v>
+      </c>
+      <c r="D160">
+        <v>393.31700000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>266</v>
+      </c>
+      <c r="C161">
+        <v>34</v>
+      </c>
+      <c r="D161">
+        <v>415.97699999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>265</v>
+      </c>
+      <c r="C162">
+        <v>34</v>
+      </c>
+      <c r="D162">
+        <v>404.346</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>238</v>
+      </c>
+      <c r="C163">
+        <v>34</v>
+      </c>
+      <c r="D163">
+        <v>351.20600000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>259</v>
+      </c>
+      <c r="C164">
+        <v>34</v>
+      </c>
+      <c r="D164">
+        <v>388.92599999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>257</v>
+      </c>
+      <c r="C165">
+        <v>34</v>
+      </c>
+      <c r="D165">
+        <v>392.66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>277</v>
+      </c>
+      <c r="C166">
+        <v>34</v>
+      </c>
+      <c r="D166">
+        <v>374.36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>269</v>
+      </c>
+      <c r="C167">
+        <v>34</v>
+      </c>
+      <c r="D167">
+        <v>333.47699999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>246</v>
+      </c>
+      <c r="C168">
+        <v>33</v>
+      </c>
+      <c r="D168">
+        <v>384.26900000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>252</v>
+      </c>
+      <c r="C169">
+        <v>33</v>
+      </c>
+      <c r="D169">
+        <v>366.32299999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>260</v>
+      </c>
+      <c r="C170">
+        <v>33</v>
+      </c>
+      <c r="D170">
+        <v>357.04599999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>259</v>
+      </c>
+      <c r="C171">
+        <v>33</v>
+      </c>
+      <c r="D171">
+        <v>375.25700000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>243</v>
+      </c>
+      <c r="C172">
+        <v>33</v>
+      </c>
+      <c r="D172">
+        <v>420.32299999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>267</v>
+      </c>
+      <c r="C173">
+        <v>33</v>
+      </c>
+      <c r="D173">
+        <v>458.72300000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>251</v>
+      </c>
+      <c r="C174">
+        <v>33</v>
+      </c>
+      <c r="D174">
+        <v>413.29700000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>277</v>
+      </c>
+      <c r="C175">
+        <v>33</v>
+      </c>
+      <c r="D175">
+        <v>501.91399999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>242</v>
+      </c>
+      <c r="C176">
+        <v>33</v>
+      </c>
+      <c r="D176">
+        <v>406.43400000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>263</v>
+      </c>
+      <c r="C177">
+        <v>33</v>
+      </c>
+      <c r="D177">
+        <v>492.517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>242</v>
+      </c>
+      <c r="C178">
+        <v>33</v>
+      </c>
+      <c r="D178">
+        <v>416.78300000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>270</v>
+      </c>
+      <c r="C179">
+        <v>33</v>
+      </c>
+      <c r="D179">
+        <v>344.96600000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>248</v>
+      </c>
+      <c r="C180">
+        <v>33</v>
+      </c>
+      <c r="D180">
+        <v>307.06900000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>256</v>
+      </c>
+      <c r="C181">
+        <v>33</v>
+      </c>
+      <c r="D181">
+        <v>327.79700000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>246</v>
+      </c>
+      <c r="C182">
+        <v>33</v>
+      </c>
+      <c r="D182">
+        <v>383.82600000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>246</v>
+      </c>
+      <c r="C183">
+        <v>33</v>
+      </c>
+      <c r="D183">
+        <v>309.637</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>269</v>
+      </c>
+      <c r="C184">
+        <v>33</v>
+      </c>
+      <c r="D184">
+        <v>372.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>270</v>
+      </c>
+      <c r="C185">
+        <v>33</v>
+      </c>
+      <c r="D185">
+        <v>341.85399999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>233</v>
+      </c>
+      <c r="C186">
+        <v>33</v>
+      </c>
+      <c r="D186">
+        <v>304.00900000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>247</v>
+      </c>
+      <c r="C187">
+        <v>33</v>
+      </c>
+      <c r="D187">
+        <v>303.96300000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>263</v>
+      </c>
+      <c r="C188">
+        <v>33</v>
+      </c>
+      <c r="D188">
+        <v>366.58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>276</v>
+      </c>
+      <c r="C189">
+        <v>33</v>
+      </c>
+      <c r="D189">
+        <v>365.95699999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>260</v>
+      </c>
+      <c r="C190">
+        <v>33</v>
+      </c>
+      <c r="D190">
+        <v>325.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>255</v>
+      </c>
+      <c r="C191">
+        <v>33</v>
+      </c>
+      <c r="D191">
+        <v>362.43400000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>269</v>
+      </c>
+      <c r="C192">
+        <v>33</v>
+      </c>
+      <c r="D192">
+        <v>336.98899999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>244</v>
+      </c>
+      <c r="C193">
+        <v>33</v>
+      </c>
+      <c r="D193">
+        <v>313.40899999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>242</v>
+      </c>
+      <c r="C194">
+        <v>33</v>
+      </c>
+      <c r="D194">
+        <v>328.14600000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>269</v>
+      </c>
+      <c r="C195">
+        <v>33</v>
+      </c>
+      <c r="D195">
+        <v>322.13400000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>270</v>
+      </c>
+      <c r="C196">
+        <v>33</v>
+      </c>
+      <c r="D196">
+        <v>337.197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>245</v>
+      </c>
+      <c r="C197">
+        <v>33</v>
+      </c>
+      <c r="D197">
+        <v>377.18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>265</v>
+      </c>
+      <c r="C198">
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>389.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>254</v>
+      </c>
+      <c r="C199">
+        <v>33</v>
+      </c>
+      <c r="D199">
+        <v>362.86599999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>258</v>
+      </c>
+      <c r="C200">
+        <v>33</v>
+      </c>
+      <c r="D200">
+        <v>333.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>260</v>
+      </c>
+      <c r="C201">
+        <v>33</v>
+      </c>
+      <c r="D201">
+        <v>345.73399999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>263</v>
+      </c>
+      <c r="C202">
+        <v>33</v>
+      </c>
+      <c r="D202">
+        <v>403.04</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>263</v>
+      </c>
+      <c r="C203">
+        <v>33</v>
+      </c>
+      <c r="D203">
+        <v>356.197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>274</v>
+      </c>
+      <c r="C204">
+        <v>33</v>
+      </c>
+      <c r="D204">
+        <v>359.76900000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>253</v>
+      </c>
+      <c r="C205">
+        <v>33</v>
+      </c>
+      <c r="D205">
+        <v>309.59399999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>256</v>
+      </c>
+      <c r="C206">
+        <v>33</v>
+      </c>
+      <c r="D206">
+        <v>329.64</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>240</v>
+      </c>
+      <c r="C207">
+        <v>33</v>
+      </c>
+      <c r="D207">
+        <v>359.31400000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>248</v>
+      </c>
+      <c r="C208">
+        <v>33</v>
+      </c>
+      <c r="D208">
+        <v>342.28300000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>270</v>
+      </c>
+      <c r="C209">
+        <v>33</v>
+      </c>
+      <c r="D209">
+        <v>395.09699999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>248</v>
+      </c>
+      <c r="C210">
+        <v>33</v>
+      </c>
+      <c r="D210">
+        <v>336.67099999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>239</v>
+      </c>
+      <c r="C211">
+        <v>33</v>
+      </c>
+      <c r="D211">
+        <v>327.61700000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>257</v>
+      </c>
+      <c r="C212">
+        <v>33</v>
+      </c>
+      <c r="D212">
+        <v>346.709</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>245</v>
+      </c>
+      <c r="C213">
+        <v>32</v>
+      </c>
+      <c r="D213">
+        <v>298.82299999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>249</v>
+      </c>
+      <c r="C214">
+        <v>32</v>
+      </c>
+      <c r="D214">
+        <v>324.59699999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>265</v>
+      </c>
+      <c r="C215">
+        <v>32</v>
+      </c>
+      <c r="D215">
+        <v>372.709</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>273</v>
+      </c>
+      <c r="C216">
+        <v>32</v>
+      </c>
+      <c r="D216">
+        <v>415.45400000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>268</v>
+      </c>
+      <c r="C217">
+        <v>32</v>
+      </c>
+      <c r="D217">
+        <v>388.87700000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>233</v>
+      </c>
+      <c r="C218">
+        <v>32</v>
+      </c>
+      <c r="D218">
+        <v>302.863</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>259</v>
+      </c>
+      <c r="C219">
+        <v>32</v>
+      </c>
+      <c r="D219">
+        <v>407.60300000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>255</v>
+      </c>
+      <c r="C220">
+        <v>32</v>
+      </c>
+      <c r="D220">
+        <v>365.589</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>265</v>
+      </c>
+      <c r="C221">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>413.62599999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>251</v>
+      </c>
+      <c r="C222">
+        <v>32</v>
+      </c>
+      <c r="D222">
+        <v>386.29399999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>259</v>
+      </c>
+      <c r="C223">
+        <v>32</v>
+      </c>
+      <c r="D223">
+        <v>333.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>259</v>
+      </c>
+      <c r="C224">
+        <v>32</v>
+      </c>
+      <c r="D224">
+        <v>376.78899999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>234</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+      <c r="D225">
+        <v>336.06599999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>271</v>
+      </c>
+      <c r="C226">
+        <v>32</v>
+      </c>
+      <c r="D226">
+        <v>385.26299999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>256</v>
+      </c>
+      <c r="C227">
+        <v>32</v>
+      </c>
+      <c r="D227">
+        <v>351.40899999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>254</v>
+      </c>
+      <c r="C228">
+        <v>32</v>
+      </c>
+      <c r="D228">
+        <v>311.75700000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>238</v>
+      </c>
+      <c r="C229">
+        <v>32</v>
+      </c>
+      <c r="D229">
+        <v>330.63400000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>274</v>
+      </c>
+      <c r="C230">
+        <v>32</v>
+      </c>
+      <c r="D230">
+        <v>314.53699999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>260</v>
+      </c>
+      <c r="C231">
+        <v>32</v>
+      </c>
+      <c r="D231">
+        <v>350.423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>250</v>
+      </c>
+      <c r="C232">
+        <v>32</v>
+      </c>
+      <c r="D232">
+        <v>357.983</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>268</v>
+      </c>
+      <c r="C233">
+        <v>32</v>
+      </c>
+      <c r="D233">
+        <v>373.59399999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>259</v>
+      </c>
+      <c r="C234">
+        <v>32</v>
+      </c>
+      <c r="D234">
+        <v>358.32600000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>260</v>
+      </c>
+      <c r="C235">
+        <v>32</v>
+      </c>
+      <c r="D235">
+        <v>341.37400000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>254</v>
+      </c>
+      <c r="C236">
+        <v>32</v>
+      </c>
+      <c r="D236">
+        <v>361.803</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>258</v>
+      </c>
+      <c r="C237">
+        <v>32</v>
+      </c>
+      <c r="D237">
+        <v>364.38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>261</v>
+      </c>
+      <c r="C238">
+        <v>32</v>
+      </c>
+      <c r="D238">
+        <v>309.37700000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>260</v>
+      </c>
+      <c r="C239">
+        <v>32</v>
+      </c>
+      <c r="D239">
+        <v>324.03100000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>269</v>
+      </c>
+      <c r="C240">
+        <v>32</v>
+      </c>
+      <c r="D240">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>261</v>
+      </c>
+      <c r="C241">
+        <v>32</v>
+      </c>
+      <c r="D241">
+        <v>326.29399999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>253</v>
+      </c>
+      <c r="C242">
+        <v>32</v>
+      </c>
+      <c r="D242">
+        <v>354.029</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <v>241</v>
+      </c>
+      <c r="C243">
+        <v>32</v>
+      </c>
+      <c r="D243">
+        <v>359.90300000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <v>248</v>
+      </c>
+      <c r="C244">
+        <v>32</v>
+      </c>
+      <c r="D244">
+        <v>371.21100000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <v>252</v>
+      </c>
+      <c r="C245">
+        <v>32</v>
+      </c>
+      <c r="D245">
+        <v>333.41699999999997</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <v>262</v>
+      </c>
+      <c r="C246">
+        <v>32</v>
+      </c>
+      <c r="D246">
+        <v>411.74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <v>249</v>
+      </c>
+      <c r="C247">
+        <v>32</v>
+      </c>
+      <c r="D247">
+        <v>376.49700000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>256</v>
+      </c>
+      <c r="C248">
+        <v>32</v>
+      </c>
+      <c r="D248">
+        <v>318.63099999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>263</v>
+      </c>
+      <c r="C249">
+        <v>32</v>
+      </c>
+      <c r="D249">
+        <v>347.70299999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <v>272</v>
+      </c>
+      <c r="C250">
+        <v>32</v>
+      </c>
+      <c r="D250">
+        <v>341.154</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <v>263</v>
+      </c>
+      <c r="C251">
+        <v>32</v>
+      </c>
+      <c r="D251">
+        <v>359.16300000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <v>245</v>
+      </c>
+      <c r="C252">
+        <v>32</v>
+      </c>
+      <c r="D252">
+        <v>290.91699999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <v>254</v>
+      </c>
+      <c r="C253">
+        <v>32</v>
+      </c>
+      <c r="D253">
+        <v>341.80900000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <v>262</v>
+      </c>
+      <c r="C254">
+        <v>32</v>
+      </c>
+      <c r="D254">
+        <v>315.58600000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>252</v>
+      </c>
+      <c r="B255">
+        <v>261</v>
+      </c>
+      <c r="C255">
+        <v>32</v>
+      </c>
+      <c r="D255">
+        <v>391.20600000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>253</v>
+      </c>
+      <c r="B256">
+        <v>263</v>
+      </c>
+      <c r="C256">
+        <v>32</v>
+      </c>
+      <c r="D256">
+        <v>412.98</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>254</v>
+      </c>
+      <c r="B257">
+        <v>244</v>
+      </c>
+      <c r="C257">
+        <v>32</v>
+      </c>
+      <c r="D257">
+        <v>386.46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <v>271</v>
+      </c>
+      <c r="C258">
+        <v>32</v>
+      </c>
+      <c r="D258">
+        <v>384.17099999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>256</v>
+      </c>
+      <c r="B259">
+        <v>253</v>
+      </c>
+      <c r="C259">
+        <v>32</v>
+      </c>
+      <c r="D259">
+        <v>335.94600000000003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>257</v>
+      </c>
+      <c r="B260">
+        <v>260</v>
+      </c>
+      <c r="C260">
+        <v>32</v>
+      </c>
+      <c r="D260">
+        <v>373.02300000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>258</v>
+      </c>
+      <c r="B261">
+        <v>270</v>
+      </c>
+      <c r="C261">
+        <v>32</v>
+      </c>
+      <c r="D261">
+        <v>333.214</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>259</v>
+      </c>
+      <c r="B262">
+        <v>266</v>
+      </c>
+      <c r="C262">
+        <v>32</v>
+      </c>
+      <c r="D262">
+        <v>400.53699999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>260</v>
+      </c>
+      <c r="B263">
+        <v>253</v>
+      </c>
+      <c r="C263">
+        <v>32</v>
+      </c>
+      <c r="D263">
+        <v>384.45699999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>261</v>
+      </c>
+      <c r="B264">
+        <v>226</v>
+      </c>
+      <c r="C264">
+        <v>32</v>
+      </c>
+      <c r="D264">
+        <v>308.55399999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>262</v>
+      </c>
+      <c r="B265">
+        <v>263</v>
+      </c>
+      <c r="C265">
+        <v>32</v>
+      </c>
+      <c r="D265">
+        <v>356.53699999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>263</v>
+      </c>
+      <c r="B266">
+        <v>261</v>
+      </c>
+      <c r="C266">
+        <v>32</v>
+      </c>
+      <c r="D266">
+        <v>364.68</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>264</v>
+      </c>
+      <c r="B267">
+        <v>238</v>
+      </c>
+      <c r="C267">
+        <v>32</v>
+      </c>
+      <c r="D267">
+        <v>335.44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <v>246</v>
+      </c>
+      <c r="C268">
+        <v>32</v>
+      </c>
+      <c r="D268">
+        <v>328.18299999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>266</v>
+      </c>
+      <c r="B269">
+        <v>273</v>
+      </c>
+      <c r="C269">
+        <v>32</v>
+      </c>
+      <c r="D269">
+        <v>365.149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <v>253</v>
+      </c>
+      <c r="C270">
+        <v>32</v>
+      </c>
+      <c r="D270">
+        <v>350.654</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <v>245</v>
+      </c>
+      <c r="C271">
+        <v>32</v>
+      </c>
+      <c r="D271">
+        <v>291.70299999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <v>267</v>
+      </c>
+      <c r="C272">
+        <v>32</v>
+      </c>
+      <c r="D272">
+        <v>373.137</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <v>248</v>
+      </c>
+      <c r="C273">
+        <v>32</v>
+      </c>
+      <c r="D273">
+        <v>321.137</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>271</v>
+      </c>
+      <c r="B274">
+        <v>243</v>
+      </c>
+      <c r="C274">
+        <v>32</v>
+      </c>
+      <c r="D274">
+        <v>329.863</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>272</v>
+      </c>
+      <c r="B275">
+        <v>256</v>
+      </c>
+      <c r="C275">
+        <v>32</v>
+      </c>
+      <c r="D275">
+        <v>332.423</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>273</v>
+      </c>
+      <c r="B276">
+        <v>262</v>
+      </c>
+      <c r="C276">
+        <v>32</v>
+      </c>
+      <c r="D276">
+        <v>347.04899999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>274</v>
+      </c>
+      <c r="B277">
+        <v>258</v>
+      </c>
+      <c r="C277">
+        <v>32</v>
+      </c>
+      <c r="D277">
+        <v>413.67399999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>275</v>
+      </c>
+      <c r="B278">
+        <v>254</v>
+      </c>
+      <c r="C278">
+        <v>32</v>
+      </c>
+      <c r="D278">
+        <v>378.70600000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>276</v>
+      </c>
+      <c r="B279">
+        <v>281</v>
+      </c>
+      <c r="C279">
+        <v>32</v>
+      </c>
+      <c r="D279">
+        <v>383.91399999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>277</v>
+      </c>
+      <c r="B280">
+        <v>255</v>
+      </c>
+      <c r="C280">
+        <v>32</v>
+      </c>
+      <c r="D280">
+        <v>373.38299999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>278</v>
+      </c>
+      <c r="B281">
+        <v>241</v>
+      </c>
+      <c r="C281">
+        <v>32</v>
+      </c>
+      <c r="D281">
+        <v>350.76299999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>279</v>
+      </c>
+      <c r="B282">
+        <v>242</v>
+      </c>
+      <c r="C282">
+        <v>32</v>
+      </c>
+      <c r="D282">
+        <v>346.97399999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>280</v>
+      </c>
+      <c r="B283">
+        <v>271</v>
+      </c>
+      <c r="C283">
+        <v>32</v>
+      </c>
+      <c r="D283">
+        <v>349.98599999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>281</v>
+      </c>
+      <c r="B284">
+        <v>254</v>
+      </c>
+      <c r="C284">
+        <v>32</v>
+      </c>
+      <c r="D284">
+        <v>346.87400000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>282</v>
+      </c>
+      <c r="B285">
+        <v>245</v>
+      </c>
+      <c r="C285">
+        <v>32</v>
+      </c>
+      <c r="D285">
+        <v>332.05399999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>283</v>
+      </c>
+      <c r="B286">
+        <v>255</v>
+      </c>
+      <c r="C286">
+        <v>32</v>
+      </c>
+      <c r="D286">
+        <v>361.666</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>284</v>
+      </c>
+      <c r="B287">
+        <v>250</v>
+      </c>
+      <c r="C287">
+        <v>32</v>
+      </c>
+      <c r="D287">
+        <v>334.726</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>285</v>
+      </c>
+      <c r="B288">
+        <v>253</v>
+      </c>
+      <c r="C288">
+        <v>32</v>
+      </c>
+      <c r="D288">
+        <v>373.06900000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>286</v>
+      </c>
+      <c r="B289">
+        <v>249</v>
+      </c>
+      <c r="C289">
+        <v>32</v>
+      </c>
+      <c r="D289">
+        <v>317.637</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <v>287</v>
+      </c>
+      <c r="B290">
+        <v>266</v>
+      </c>
+      <c r="C290">
+        <v>32</v>
+      </c>
+      <c r="D290">
+        <v>349.54300000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>288</v>
+      </c>
+      <c r="B291">
+        <v>246</v>
+      </c>
+      <c r="C291">
+        <v>32</v>
+      </c>
+      <c r="D291">
+        <v>316.03699999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>289</v>
+      </c>
+      <c r="B292">
+        <v>251</v>
+      </c>
+      <c r="C292">
+        <v>32</v>
+      </c>
+      <c r="D292">
+        <v>330.137</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <v>290</v>
+      </c>
+      <c r="B293">
+        <v>230</v>
+      </c>
+      <c r="C293">
+        <v>32</v>
+      </c>
+      <c r="D293">
+        <v>338.21100000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <v>291</v>
+      </c>
+      <c r="B294">
+        <v>241</v>
+      </c>
+      <c r="C294">
+        <v>32</v>
+      </c>
+      <c r="D294">
+        <v>294.911</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <v>292</v>
+      </c>
+      <c r="B295">
+        <v>253</v>
+      </c>
+      <c r="C295">
+        <v>32</v>
+      </c>
+      <c r="D295">
+        <v>317.58</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <v>293</v>
+      </c>
+      <c r="B296">
+        <v>256</v>
+      </c>
+      <c r="C296">
+        <v>32</v>
+      </c>
+      <c r="D296">
+        <v>321.32600000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <v>294</v>
+      </c>
+      <c r="B297">
+        <v>245</v>
+      </c>
+      <c r="C297">
+        <v>32</v>
+      </c>
+      <c r="D297">
+        <v>355.89400000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <v>295</v>
+      </c>
+      <c r="B298">
+        <v>251</v>
+      </c>
+      <c r="C298">
+        <v>32</v>
+      </c>
+      <c r="D298">
+        <v>322.55099999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <v>296</v>
+      </c>
+      <c r="B299">
+        <v>247</v>
+      </c>
+      <c r="C299">
+        <v>32</v>
+      </c>
+      <c r="D299">
+        <v>306.88900000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <v>297</v>
+      </c>
+      <c r="B300">
+        <v>272</v>
+      </c>
+      <c r="C300">
+        <v>32</v>
+      </c>
+      <c r="D300">
+        <v>331.90600000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <v>298</v>
+      </c>
+      <c r="B301">
+        <v>267</v>
+      </c>
+      <c r="C301">
+        <v>32</v>
+      </c>
+      <c r="D301">
+        <v>362.79700000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <v>299</v>
+      </c>
+      <c r="B302">
+        <v>246</v>
+      </c>
+      <c r="C302">
+        <v>32</v>
+      </c>
+      <c r="D302">
+        <v>335.12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <v>300</v>
+      </c>
+      <c r="B303">
+        <v>250</v>
+      </c>
+      <c r="C303">
+        <v>32</v>
+      </c>
+      <c r="D303">
+        <v>314.91699999999997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <v>301</v>
+      </c>
+      <c r="B304">
+        <v>258</v>
+      </c>
+      <c r="C304">
+        <v>32</v>
+      </c>
+      <c r="D304">
+        <v>349.82299999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <v>302</v>
+      </c>
+      <c r="B305">
+        <v>271</v>
+      </c>
+      <c r="C305">
+        <v>32</v>
+      </c>
+      <c r="D305">
+        <v>350.64299999999997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <v>303</v>
+      </c>
+      <c r="B306">
+        <v>256</v>
+      </c>
+      <c r="C306">
+        <v>32</v>
+      </c>
+      <c r="D306">
+        <v>309.291</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <v>304</v>
+      </c>
+      <c r="B307">
+        <v>251</v>
+      </c>
+      <c r="C307">
+        <v>32</v>
+      </c>
+      <c r="D307">
+        <v>346.68</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <v>305</v>
+      </c>
+      <c r="B308">
+        <v>253</v>
+      </c>
+      <c r="C308">
+        <v>32</v>
+      </c>
+      <c r="D308">
+        <v>318.36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <v>306</v>
+      </c>
+      <c r="B309">
+        <v>267</v>
+      </c>
+      <c r="C309">
+        <v>32</v>
+      </c>
+      <c r="D309">
+        <v>368.46600000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <v>307</v>
+      </c>
+      <c r="B310">
+        <v>256</v>
+      </c>
+      <c r="C310">
+        <v>32</v>
+      </c>
+      <c r="D310">
+        <v>332.52300000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <v>308</v>
+      </c>
+      <c r="B311">
+        <v>264</v>
+      </c>
+      <c r="C311">
+        <v>32</v>
+      </c>
+      <c r="D311">
+        <v>326.91699999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <v>309</v>
+      </c>
+      <c r="B312">
+        <v>255</v>
+      </c>
+      <c r="C312">
+        <v>32</v>
+      </c>
+      <c r="D312">
+        <v>344.72899999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <v>310</v>
+      </c>
+      <c r="B313">
+        <v>262</v>
+      </c>
+      <c r="C313">
+        <v>32</v>
+      </c>
+      <c r="D313">
+        <v>438.40600000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <v>311</v>
+      </c>
+      <c r="B314">
+        <v>271</v>
+      </c>
+      <c r="C314">
+        <v>32</v>
+      </c>
+      <c r="D314">
+        <v>367.834</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <v>312</v>
+      </c>
+      <c r="B315">
+        <v>256</v>
+      </c>
+      <c r="C315">
+        <v>32</v>
+      </c>
+      <c r="D315">
+        <v>335.31400000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <v>313</v>
+      </c>
+      <c r="B316">
+        <v>286</v>
+      </c>
+      <c r="C316">
+        <v>32</v>
+      </c>
+      <c r="D316">
+        <v>376.26299999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <v>314</v>
+      </c>
+      <c r="B317">
+        <v>242</v>
+      </c>
+      <c r="C317">
+        <v>32</v>
+      </c>
+      <c r="D317">
+        <v>337.77100000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <v>315</v>
+      </c>
+      <c r="B318">
+        <v>254</v>
+      </c>
+      <c r="C318">
+        <v>32</v>
+      </c>
+      <c r="D318">
+        <v>308.983</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <v>316</v>
+      </c>
+      <c r="B319">
+        <v>223</v>
+      </c>
+      <c r="C319">
+        <v>32</v>
+      </c>
+      <c r="D319">
+        <v>282.166</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <v>317</v>
+      </c>
+      <c r="B320">
+        <v>261</v>
+      </c>
+      <c r="C320">
+        <v>32</v>
+      </c>
+      <c r="D320">
+        <v>341.52300000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <v>318</v>
+      </c>
+      <c r="B321">
+        <v>265</v>
+      </c>
+      <c r="C321">
+        <v>32</v>
+      </c>
+      <c r="D321">
+        <v>350.04</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <v>319</v>
+      </c>
+      <c r="B322">
+        <v>247</v>
+      </c>
+      <c r="C322">
+        <v>32</v>
+      </c>
+      <c r="D322">
+        <v>321.226</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <v>320</v>
+      </c>
+      <c r="B323">
+        <v>273</v>
+      </c>
+      <c r="C323">
+        <v>32</v>
+      </c>
+      <c r="D323">
+        <v>343.81700000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <v>321</v>
+      </c>
+      <c r="B324">
+        <v>243</v>
+      </c>
+      <c r="C324">
+        <v>32</v>
+      </c>
+      <c r="D324">
+        <v>317.82900000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <v>322</v>
+      </c>
+      <c r="B325">
+        <v>264</v>
+      </c>
+      <c r="C325">
+        <v>32</v>
+      </c>
+      <c r="D325">
+        <v>358.40300000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <v>323</v>
+      </c>
+      <c r="B326">
+        <v>245</v>
+      </c>
+      <c r="C326">
+        <v>32</v>
+      </c>
+      <c r="D326">
+        <v>309.35700000000003</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <v>324</v>
+      </c>
+      <c r="B327">
+        <v>253</v>
+      </c>
+      <c r="C327">
+        <v>32</v>
+      </c>
+      <c r="D327">
+        <v>370.50900000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <v>325</v>
+      </c>
+      <c r="B328">
+        <v>266</v>
+      </c>
+      <c r="C328">
+        <v>32</v>
+      </c>
+      <c r="D328">
+        <v>379.40600000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <v>326</v>
+      </c>
+      <c r="B329">
+        <v>263</v>
+      </c>
+      <c r="C329">
+        <v>32</v>
+      </c>
+      <c r="D329">
+        <v>335.88600000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>327</v>
+      </c>
+      <c r="B330">
+        <v>276</v>
+      </c>
+      <c r="C330">
+        <v>32</v>
+      </c>
+      <c r="D330">
+        <v>390.69099999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <v>328</v>
+      </c>
+      <c r="B331">
+        <v>250</v>
+      </c>
+      <c r="C331">
+        <v>32</v>
+      </c>
+      <c r="D331">
+        <v>329.34899999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <v>329</v>
+      </c>
+      <c r="B332">
+        <v>268</v>
+      </c>
+      <c r="C332">
+        <v>32</v>
+      </c>
+      <c r="D332">
+        <v>368.55399999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <v>330</v>
+      </c>
+      <c r="B333">
+        <v>238</v>
+      </c>
+      <c r="C333">
+        <v>32</v>
+      </c>
+      <c r="D333">
+        <v>355.91699999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <v>331</v>
+      </c>
+      <c r="B334">
+        <v>250</v>
+      </c>
+      <c r="C334">
+        <v>32</v>
+      </c>
+      <c r="D334">
+        <v>315.26600000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <v>332</v>
+      </c>
+      <c r="B335">
+        <v>267</v>
+      </c>
+      <c r="C335">
+        <v>32</v>
+      </c>
+      <c r="D335">
+        <v>352.49400000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>333</v>
+      </c>
+      <c r="B336">
+        <v>266</v>
+      </c>
+      <c r="C336">
+        <v>32</v>
+      </c>
+      <c r="D336">
+        <v>379.60599999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <v>334</v>
+      </c>
+      <c r="B337">
+        <v>250</v>
+      </c>
+      <c r="C337">
+        <v>32</v>
+      </c>
+      <c r="D337">
+        <v>288.03100000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <v>335</v>
+      </c>
+      <c r="B338">
+        <v>255</v>
+      </c>
+      <c r="C338">
+        <v>32</v>
+      </c>
+      <c r="D338">
+        <v>340.63400000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <v>336</v>
+      </c>
+      <c r="B339">
+        <v>242</v>
+      </c>
+      <c r="C339">
+        <v>32</v>
+      </c>
+      <c r="D339">
+        <v>355.20600000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <v>337</v>
+      </c>
+      <c r="B340">
+        <v>263</v>
+      </c>
+      <c r="C340">
+        <v>32</v>
+      </c>
+      <c r="D340">
+        <v>350.28300000000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>338</v>
+      </c>
+      <c r="B341">
+        <v>269</v>
+      </c>
+      <c r="C341">
+        <v>32</v>
+      </c>
+      <c r="D341">
+        <v>359.577</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <v>339</v>
+      </c>
+      <c r="B342">
+        <v>242</v>
+      </c>
+      <c r="C342">
+        <v>32</v>
+      </c>
+      <c r="D342">
+        <v>300.851</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <v>340</v>
+      </c>
+      <c r="B343">
+        <v>256</v>
+      </c>
+      <c r="C343">
+        <v>32</v>
+      </c>
+      <c r="D343">
+        <v>303.45400000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <v>341</v>
+      </c>
+      <c r="B344">
+        <v>270</v>
+      </c>
+      <c r="C344">
+        <v>32</v>
+      </c>
+      <c r="D344">
+        <v>335.19400000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>342</v>
+      </c>
+      <c r="B345">
+        <v>244</v>
+      </c>
+      <c r="C345">
+        <v>32</v>
+      </c>
+      <c r="D345">
+        <v>283.10899999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <v>343</v>
+      </c>
+      <c r="B346">
+        <v>252</v>
+      </c>
+      <c r="C346">
+        <v>32</v>
+      </c>
+      <c r="D346">
+        <v>324.26600000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <v>344</v>
+      </c>
+      <c r="B347">
+        <v>267</v>
+      </c>
+      <c r="C347">
+        <v>32</v>
+      </c>
+      <c r="D347">
+        <v>389.029</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <v>345</v>
+      </c>
+      <c r="B348">
+        <v>281</v>
+      </c>
+      <c r="C348">
+        <v>32</v>
+      </c>
+      <c r="D348">
+        <v>365.64</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <v>346</v>
+      </c>
+      <c r="B349">
+        <v>253</v>
+      </c>
+      <c r="C349">
+        <v>32</v>
+      </c>
+      <c r="D349">
+        <v>356.39100000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>347</v>
+      </c>
+      <c r="B350">
+        <v>259</v>
+      </c>
+      <c r="C350">
+        <v>32</v>
+      </c>
+      <c r="D350">
+        <v>332.02600000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <v>348</v>
+      </c>
+      <c r="B351">
+        <v>259</v>
+      </c>
+      <c r="C351">
+        <v>32</v>
+      </c>
+      <c r="D351">
+        <v>318.68599999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <v>349</v>
+      </c>
+      <c r="B352">
+        <v>250</v>
+      </c>
+      <c r="C352">
+        <v>32</v>
+      </c>
+      <c r="D352">
+        <v>341.32</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <v>350</v>
+      </c>
+      <c r="B353">
+        <v>227</v>
+      </c>
+      <c r="C353">
+        <v>32</v>
+      </c>
+      <c r="D353">
+        <v>327.346</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <v>351</v>
+      </c>
+      <c r="B354">
+        <v>259</v>
+      </c>
+      <c r="C354">
+        <v>32</v>
+      </c>
+      <c r="D354">
+        <v>332.74599999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <v>352</v>
+      </c>
+      <c r="B355">
+        <v>266</v>
+      </c>
+      <c r="C355">
+        <v>32</v>
+      </c>
+      <c r="D355">
+        <v>384.81099999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>353</v>
+      </c>
+      <c r="B356">
+        <v>264</v>
+      </c>
+      <c r="C356">
+        <v>32</v>
+      </c>
+      <c r="D356">
+        <v>367.851</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A357">
+        <v>354</v>
+      </c>
+      <c r="B357">
+        <v>257</v>
+      </c>
+      <c r="C357">
+        <v>32</v>
+      </c>
+      <c r="D357">
+        <v>359.04599999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A358">
+        <v>355</v>
+      </c>
+      <c r="B358">
+        <v>255</v>
+      </c>
+      <c r="C358">
+        <v>32</v>
+      </c>
+      <c r="D358">
+        <v>361.53100000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <v>356</v>
+      </c>
+      <c r="B359">
+        <v>259</v>
+      </c>
+      <c r="C359">
+        <v>32</v>
+      </c>
+      <c r="D359">
+        <v>318.54300000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A360">
+        <v>357</v>
+      </c>
+      <c r="B360">
+        <v>266</v>
+      </c>
+      <c r="C360">
+        <v>32</v>
+      </c>
+      <c r="D360">
+        <v>364.21699999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A361">
+        <v>358</v>
+      </c>
+      <c r="B361">
+        <v>267</v>
+      </c>
+      <c r="C361">
+        <v>32</v>
+      </c>
+      <c r="D361">
+        <v>359.35399999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A362">
+        <v>359</v>
+      </c>
+      <c r="B362">
+        <v>260</v>
+      </c>
+      <c r="C362">
+        <v>32</v>
+      </c>
+      <c r="D362">
+        <v>348.06599999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A363">
+        <v>360</v>
+      </c>
+      <c r="B363">
+        <v>254</v>
+      </c>
+      <c r="C363">
+        <v>32</v>
+      </c>
+      <c r="D363">
+        <v>330.25400000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A364">
+        <v>361</v>
+      </c>
+      <c r="B364">
+        <v>246</v>
+      </c>
+      <c r="C364">
+        <v>32</v>
+      </c>
+      <c r="D364">
+        <v>315.88900000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A365">
+        <v>362</v>
+      </c>
+      <c r="B365">
+        <v>242</v>
+      </c>
+      <c r="C365">
+        <v>32</v>
+      </c>
+      <c r="D365">
+        <v>305.791</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A366">
+        <v>363</v>
+      </c>
+      <c r="B366">
+        <v>241</v>
+      </c>
+      <c r="C366">
+        <v>32</v>
+      </c>
+      <c r="D366">
+        <v>346.28</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <v>364</v>
+      </c>
+      <c r="B367">
+        <v>250</v>
+      </c>
+      <c r="C367">
+        <v>32</v>
+      </c>
+      <c r="D367">
+        <v>327.75400000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <v>365</v>
+      </c>
+      <c r="B368">
+        <v>239</v>
+      </c>
+      <c r="C368">
+        <v>32</v>
+      </c>
+      <c r="D368">
+        <v>287.96300000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <v>366</v>
+      </c>
+      <c r="B369">
+        <v>274</v>
+      </c>
+      <c r="C369">
+        <v>32</v>
+      </c>
+      <c r="D369">
+        <v>403.26600000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>367</v>
+      </c>
+      <c r="B370">
+        <v>230</v>
+      </c>
+      <c r="C370">
+        <v>32</v>
+      </c>
+      <c r="D370">
+        <v>318.697</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <v>368</v>
+      </c>
+      <c r="B371">
+        <v>265</v>
+      </c>
+      <c r="C371">
+        <v>32</v>
+      </c>
+      <c r="D371">
+        <v>334.73399999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>369</v>
+      </c>
+      <c r="B372">
+        <v>257</v>
+      </c>
+      <c r="C372">
+        <v>32</v>
+      </c>
+      <c r="D372">
+        <v>280.64600000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <v>370</v>
+      </c>
+      <c r="B373">
+        <v>258</v>
+      </c>
+      <c r="C373">
+        <v>32</v>
+      </c>
+      <c r="D373">
+        <v>352.14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <v>371</v>
+      </c>
+      <c r="B374">
+        <v>244</v>
+      </c>
+      <c r="C374">
+        <v>32</v>
+      </c>
+      <c r="D374">
+        <v>318.24299999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <v>372</v>
+      </c>
+      <c r="B375">
+        <v>276</v>
+      </c>
+      <c r="C375">
+        <v>32</v>
+      </c>
+      <c r="D375">
+        <v>376.29700000000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <v>373</v>
+      </c>
+      <c r="B376">
+        <v>265</v>
+      </c>
+      <c r="C376">
+        <v>32</v>
+      </c>
+      <c r="D376">
+        <v>327.76600000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <v>374</v>
+      </c>
+      <c r="B377">
+        <v>255</v>
+      </c>
+      <c r="C377">
+        <v>32</v>
+      </c>
+      <c r="D377">
+        <v>338.77100000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <v>375</v>
+      </c>
+      <c r="B378">
+        <v>267</v>
+      </c>
+      <c r="C378">
+        <v>32</v>
+      </c>
+      <c r="D378">
+        <v>350.5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <v>376</v>
+      </c>
+      <c r="B379">
+        <v>276</v>
+      </c>
+      <c r="C379">
+        <v>32</v>
+      </c>
+      <c r="D379">
+        <v>365.36599999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <v>377</v>
+      </c>
+      <c r="B380">
+        <v>271</v>
+      </c>
+      <c r="C380">
+        <v>32</v>
+      </c>
+      <c r="D380">
+        <v>361.56599999999997</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>378</v>
+      </c>
+      <c r="B381">
+        <v>237</v>
+      </c>
+      <c r="C381">
+        <v>32</v>
+      </c>
+      <c r="D381">
+        <v>381.62900000000002</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <v>379</v>
+      </c>
+      <c r="B382">
+        <v>255</v>
+      </c>
+      <c r="C382">
+        <v>32</v>
+      </c>
+      <c r="D382">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <v>380</v>
+      </c>
+      <c r="B383">
+        <v>255</v>
+      </c>
+      <c r="C383">
+        <v>32</v>
+      </c>
+      <c r="D383">
+        <v>365.46300000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <v>381</v>
+      </c>
+      <c r="B384">
+        <v>220</v>
+      </c>
+      <c r="C384">
+        <v>32</v>
+      </c>
+      <c r="D384">
+        <v>315.10300000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <v>382</v>
+      </c>
+      <c r="B385">
+        <v>247</v>
+      </c>
+      <c r="C385">
+        <v>32</v>
+      </c>
+      <c r="D385">
+        <v>337.726</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <v>383</v>
+      </c>
+      <c r="B386">
+        <v>257</v>
+      </c>
+      <c r="C386">
+        <v>32</v>
+      </c>
+      <c r="D386">
+        <v>340.99700000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <v>384</v>
+      </c>
+      <c r="B387">
+        <v>257</v>
+      </c>
+      <c r="C387">
+        <v>32</v>
+      </c>
+      <c r="D387">
+        <v>306.50599999999997</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <v>385</v>
+      </c>
+      <c r="B388">
+        <v>277</v>
+      </c>
+      <c r="C388">
+        <v>32</v>
+      </c>
+      <c r="D388">
+        <v>397.19400000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <v>386</v>
+      </c>
+      <c r="B389">
+        <v>233</v>
+      </c>
+      <c r="C389">
+        <v>32</v>
+      </c>
+      <c r="D389">
+        <v>302.483</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <v>387</v>
+      </c>
+      <c r="B390">
+        <v>279</v>
+      </c>
+      <c r="C390">
+        <v>32</v>
+      </c>
+      <c r="D390">
+        <v>314.52300000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <v>388</v>
+      </c>
+      <c r="B391">
+        <v>267</v>
+      </c>
+      <c r="C391">
+        <v>32</v>
+      </c>
+      <c r="D391">
+        <v>293.863</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <v>389</v>
+      </c>
+      <c r="B392">
+        <v>239</v>
+      </c>
+      <c r="C392">
+        <v>32</v>
+      </c>
+      <c r="D392">
+        <v>300.49099999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <v>390</v>
+      </c>
+      <c r="B393">
+        <v>260</v>
+      </c>
+      <c r="C393">
+        <v>32</v>
+      </c>
+      <c r="D393">
+        <v>309.47399999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>391</v>
+      </c>
+      <c r="B394">
+        <v>253</v>
+      </c>
+      <c r="C394">
+        <v>32</v>
+      </c>
+      <c r="D394">
+        <v>312.35399999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>392</v>
+      </c>
+      <c r="B395">
+        <v>255</v>
+      </c>
+      <c r="C395">
+        <v>32</v>
+      </c>
+      <c r="D395">
+        <v>329.31400000000002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <v>393</v>
+      </c>
+      <c r="B396">
+        <v>235</v>
+      </c>
+      <c r="C396">
+        <v>32</v>
+      </c>
+      <c r="D396">
+        <v>313.47699999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <v>394</v>
+      </c>
+      <c r="B397">
+        <v>257</v>
+      </c>
+      <c r="C397">
+        <v>32</v>
+      </c>
+      <c r="D397">
+        <v>346.69400000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <v>395</v>
+      </c>
+      <c r="B398">
+        <v>258</v>
+      </c>
+      <c r="C398">
+        <v>32</v>
+      </c>
+      <c r="D398">
+        <v>367.38299999999998</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>396</v>
+      </c>
+      <c r="B399">
+        <v>255</v>
+      </c>
+      <c r="C399">
+        <v>32</v>
+      </c>
+      <c r="D399">
+        <v>329.154</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <v>397</v>
+      </c>
+      <c r="B400">
+        <v>289</v>
+      </c>
+      <c r="C400">
+        <v>32</v>
+      </c>
+      <c r="D400">
+        <v>376.96899999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <v>398</v>
+      </c>
+      <c r="B401">
+        <v>259</v>
+      </c>
+      <c r="C401">
+        <v>32</v>
+      </c>
+      <c r="D401">
+        <v>329.423</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <v>399</v>
+      </c>
+      <c r="B402">
+        <v>261</v>
+      </c>
+      <c r="C402">
+        <v>32</v>
+      </c>
+      <c r="D402">
+        <v>358.40600000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>400</v>
+      </c>
+      <c r="B403">
+        <v>254</v>
+      </c>
+      <c r="C403">
+        <v>32</v>
+      </c>
+      <c r="D403">
+        <v>327.20600000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <v>401</v>
+      </c>
+      <c r="B404">
+        <v>260</v>
+      </c>
+      <c r="C404">
+        <v>32</v>
+      </c>
+      <c r="D404">
+        <v>368.68299999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <v>402</v>
+      </c>
+      <c r="B405">
+        <v>245</v>
+      </c>
+      <c r="C405">
+        <v>32</v>
+      </c>
+      <c r="D405">
+        <v>330.27699999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <v>403</v>
+      </c>
+      <c r="B406">
+        <v>255</v>
+      </c>
+      <c r="C406">
+        <v>32</v>
+      </c>
+      <c r="D406">
+        <v>350.13099999999997</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <v>404</v>
+      </c>
+      <c r="B407">
+        <v>248</v>
+      </c>
+      <c r="C407">
+        <v>32</v>
+      </c>
+      <c r="D407">
+        <v>329.52600000000001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>405</v>
+      </c>
+      <c r="B408">
+        <v>240</v>
+      </c>
+      <c r="C408">
+        <v>32</v>
+      </c>
+      <c r="D408">
+        <v>317.25099999999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>406</v>
+      </c>
+      <c r="B409">
+        <v>259</v>
+      </c>
+      <c r="C409">
+        <v>32</v>
+      </c>
+      <c r="D409">
+        <v>370.89400000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <v>407</v>
+      </c>
+      <c r="B410">
+        <v>252</v>
+      </c>
+      <c r="C410">
+        <v>32</v>
+      </c>
+      <c r="D410">
+        <v>361.029</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <v>408</v>
+      </c>
+      <c r="B411">
+        <v>250</v>
+      </c>
+      <c r="C411">
+        <v>32</v>
+      </c>
+      <c r="D411">
+        <v>318.17399999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <v>409</v>
+      </c>
+      <c r="B412">
+        <v>245</v>
+      </c>
+      <c r="C412">
+        <v>32</v>
+      </c>
+      <c r="D412">
+        <v>325.12299999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <v>410</v>
+      </c>
+      <c r="B413">
+        <v>246</v>
+      </c>
+      <c r="C413">
+        <v>32</v>
+      </c>
+      <c r="D413">
+        <v>377.15100000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <v>411</v>
+      </c>
+      <c r="B414">
+        <v>253</v>
+      </c>
+      <c r="C414">
+        <v>32</v>
+      </c>
+      <c r="D414">
+        <v>326.791</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <v>412</v>
+      </c>
+      <c r="B415">
+        <v>273</v>
+      </c>
+      <c r="C415">
+        <v>32</v>
+      </c>
+      <c r="D415">
+        <v>355.32900000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <v>413</v>
+      </c>
+      <c r="B416">
+        <v>258</v>
+      </c>
+      <c r="C416">
+        <v>32</v>
+      </c>
+      <c r="D416">
+        <v>391.25400000000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>414</v>
+      </c>
+      <c r="B417">
+        <v>246</v>
+      </c>
+      <c r="C417">
+        <v>32</v>
+      </c>
+      <c r="D417">
+        <v>355.84300000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <v>415</v>
+      </c>
+      <c r="B418">
+        <v>254</v>
+      </c>
+      <c r="C418">
+        <v>32</v>
+      </c>
+      <c r="D418">
+        <v>352.75400000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <v>416</v>
+      </c>
+      <c r="B419">
+        <v>258</v>
+      </c>
+      <c r="C419">
+        <v>32</v>
+      </c>
+      <c r="D419">
+        <v>312.226</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <v>417</v>
+      </c>
+      <c r="B420">
+        <v>242</v>
+      </c>
+      <c r="C420">
+        <v>32</v>
+      </c>
+      <c r="D420">
+        <v>336.137</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <v>418</v>
+      </c>
+      <c r="B421">
+        <v>251</v>
+      </c>
+      <c r="C421">
+        <v>32</v>
+      </c>
+      <c r="D421">
+        <v>306.62</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>419</v>
+      </c>
+      <c r="B422">
+        <v>241</v>
+      </c>
+      <c r="C422">
+        <v>32</v>
+      </c>
+      <c r="D422">
+        <v>341.32900000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <v>420</v>
+      </c>
+      <c r="B423">
+        <v>260</v>
+      </c>
+      <c r="C423">
+        <v>32</v>
+      </c>
+      <c r="D423">
+        <v>361.351</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>421</v>
+      </c>
+      <c r="B424">
+        <v>260</v>
+      </c>
+      <c r="C424">
+        <v>32</v>
+      </c>
+      <c r="D424">
+        <v>276.72899999999998</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <v>422</v>
+      </c>
+      <c r="B425">
+        <v>255</v>
+      </c>
+      <c r="C425">
+        <v>32</v>
+      </c>
+      <c r="D425">
+        <v>334.86599999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <v>423</v>
+      </c>
+      <c r="B426">
+        <v>246</v>
+      </c>
+      <c r="C426">
+        <v>32</v>
+      </c>
+      <c r="D426">
+        <v>337.94900000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <v>424</v>
+      </c>
+      <c r="B427">
+        <v>253</v>
+      </c>
+      <c r="C427">
+        <v>32</v>
+      </c>
+      <c r="D427">
+        <v>366.86900000000003</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>425</v>
+      </c>
+      <c r="B428">
+        <v>254</v>
+      </c>
+      <c r="C428">
+        <v>32</v>
+      </c>
+      <c r="D428">
+        <v>325.77999999999997</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <v>426</v>
+      </c>
+      <c r="B429">
+        <v>271</v>
+      </c>
+      <c r="C429">
+        <v>32</v>
+      </c>
+      <c r="D429">
+        <v>308.654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12143C5-D48E-4D89-84FF-A7032F30138D}">
   <dimension ref="A2:AR190"/>
   <sheetViews>
@@ -25682,7 +35180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFA5866-5CA0-4D57-9B1A-996A9FEB0384}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EE2AB2-A809-4987-8F39-73B241BB1BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E5BC02-B491-44EE-8780-E1EDE3FCD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>対象エクセル名</t>
     <rPh sb="0" eb="2">
@@ -1282,6 +1282,25 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少ない人数のグループを増やして，重複を少なくするか</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -28568,7 +28587,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28744,12 +28763,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="B16" s="28" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>115</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E5BC02-B491-44EE-8780-E1EDE3FCD86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6137B-058C-4AFC-9AB9-2594E7469178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28586,8 +28586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7176C33-C9EB-4A89-A9DF-877E1AF7E054}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28770,7 +28770,7 @@
         <v>114</v>
       </c>
       <c r="C16" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>115</v>
@@ -28803,7 +28803,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>99</v>
@@ -28817,7 +28817,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>

--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay0423\Documents\Python Scripts\separate_group_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF6137B-058C-4AFC-9AB9-2594E7469178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893A8EE3-858A-4E07-8C93-1EA63D417DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28817,7 +28817,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -28845,7 +28845,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="2">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
@@ -28953,7 +28953,7 @@
         <v>60</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3"/>
     </row>
